--- a/carbon-elastic/carbon-kinematics.xlsx
+++ b/carbon-elastic/carbon-kinematics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="84" windowWidth="9540" windowHeight="8412" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="144" windowWidth="9540" windowHeight="8352"/>
   </bookViews>
   <sheets>
     <sheet name="kinematics" sheetId="1" r:id="rId1"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +435,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +451,11 @@
       <c r="E1">
         <v>2218</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -468,8 +471,11 @@
       <c r="E2">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -483,31 +489,38 @@
         <v>13.5</v>
       </c>
       <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>13.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <f>931.5*12</f>
+        <f t="shared" ref="B4:F4" si="0">931.5*12</f>
         <v>11178</v>
       </c>
       <c r="C4">
-        <f>931.5*12</f>
+        <f t="shared" si="0"/>
         <v>11178</v>
       </c>
       <c r="D4">
-        <f>931.5*12</f>
+        <f t="shared" si="0"/>
         <v>11178</v>
       </c>
       <c r="E4">
-        <f>931.5*12</f>
+        <f t="shared" si="0"/>
         <v>11178</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>11178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -525,31 +538,39 @@
       </c>
       <c r="E5">
         <f>(E1*E4-E2*(E1+E4))/(E1*(1-COS(E3/180*3.14159))+E4-E2)</f>
-        <v>2201.5236553553032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2206.9427660431415</v>
+      </c>
+      <c r="F5">
+        <f>(F1*F4-F2*(F1+F4))/(F1*(1-COS(F3/180*3.14159))+F4-F2)</f>
+        <v>2201.9495771422612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <f>(B5*(B1+B4)-B1*(B5*COS(B3/180*3.14159)+B4))/(B5-B1-B4)</f>
+        <f t="shared" ref="B6:F6" si="1">(B5*(B1+B4)-B1*(B5*COS(B3/180*3.14159)+B4))/(B5-B1-B4)</f>
         <v>4.3991346444644952</v>
       </c>
       <c r="C6">
-        <f>(C5*(C1+C4)-C1*(C5*COS(C3/180*3.14159)+C4))/(C5-C1-C4)</f>
+        <f t="shared" si="1"/>
         <v>-3.3315781234738237E-13</v>
       </c>
       <c r="D6">
-        <f>(D5*(D1+D4)-D1*(D5*COS(D3/180*3.14159)+D4))/(D5-D1-D4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>(E5*(E1+E4)-E1*(E5*COS(E3/180*3.14159)+E4))/(E5-E1-E4)</f>
-        <v>4.3999999999996628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>4.3999999999996149</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.3291094835929628E-13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -565,8 +586,11 @@
       <c r="E7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -575,19 +599,23 @@
         <v>-11186.153678365599</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:E8" si="0">C5-C4-C1</f>
+        <f t="shared" ref="C8:E8" si="2">C5-C4-C1</f>
         <v>-11181.75879537103</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-11190.093885896727</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>-11194.476344644696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>-11189.057233956859</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="3">F5-F4-F1</f>
+        <v>-11190.050422857739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -596,52 +624,81 @@
         <v>49209.396184805781</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:E9" si="1">C1*C5*(COS(C3/180*3.14159)-1)-C4*C5+C1*C4</f>
+        <f t="shared" ref="C9:E9" si="4">C1*C5*(COS(C3/180*3.14159)-1)-C4*C5+C1*C4</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>49255.695916432887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>49231.851829409599</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="5">F1*F5*(COS(F3/180*3.14159)-1)-F4*F5+F1*F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>SQRT(B8*B8-4*B7*B9)</f>
         <v>11181.7536783656</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:E10" si="2">SQRT(C8*C8-4*C7*C9)</f>
+        <f t="shared" ref="C10:E10" si="6">SQRT(C8*C8-4*C7*C9)</f>
         <v>11181.75879537103</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11190.093885896727</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>11190.075479592477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>11184.65636848551</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10" si="7">SQRT(F8*F8-4*F7*F9)</f>
+        <v>11190.050422857739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>-B8-B10</f>
         <v>4.3999999999996362</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:E11" si="3">-C8-C10</f>
+        <f t="shared" ref="C11:E11" si="8">-C8-C10</f>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>4.4008650522191601</v>
+        <f t="shared" si="8"/>
+        <v>4.4008654713488795</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="9">-F8-F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>2201.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f>E12/E5</f>
+        <v>0.99753379828109456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f>0.5*1.65</f>
+        <v>0.82499999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
